--- a/report_khach_hang/Danh sách khách hàng CẦN THƠ.xlsx
+++ b/report_khach_hang/Danh sách khách hàng CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -504,11 +504,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -538,11 +538,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -606,11 +606,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,8 +621,10 @@
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="n">
-        <v/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0872928717</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -638,11 +640,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +657,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0934108896</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -672,11 +674,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -704,11 +706,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -721,7 +723,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -738,11 +740,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -770,11 +772,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -787,7 +789,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -804,11 +806,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -836,11 +838,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -853,7 +855,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0986087371</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -870,11 +872,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -885,10 +887,8 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0799535184</t>
-        </is>
+      <c r="F14" t="n">
+        <v/>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -904,11 +904,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -938,11 +938,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -972,11 +972,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1006,11 +1006,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1040,11 +1040,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1074,11 +1074,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1108,11 +1108,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1142,11 +1142,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1176,11 +1176,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1210,11 +1210,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1225,8 +1225,10 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="n">
-        <v/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1242,11 +1244,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1259,7 +1261,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1276,11 +1278,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1291,10 +1293,8 @@
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0939268869</t>
-        </is>
+      <c r="F26" t="n">
+        <v/>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1310,11 +1310,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1378,11 +1378,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1393,8 +1393,10 @@
       <c r="E29" t="n">
         <v/>
       </c>
-      <c r="F29" t="n">
-        <v/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0833644489</t>
+        </is>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1410,11 +1412,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1427,7 +1429,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1444,11 +1446,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1459,10 +1461,8 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0939273533</t>
-        </is>
+      <c r="F31" t="n">
+        <v/>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1478,11 +1478,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1512,11 +1512,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1546,11 +1546,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1580,11 +1580,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1614,11 +1614,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1648,11 +1648,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1682,11 +1682,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1716,11 +1716,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1750,11 +1750,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1784,11 +1784,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1818,11 +1818,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -1852,11 +1852,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1886,11 +1886,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -1920,11 +1920,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1954,11 +1954,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -1988,11 +1988,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2022,11 +2022,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2056,11 +2056,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2090,11 +2090,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2105,8 +2105,10 @@
       <c r="E50" t="n">
         <v/>
       </c>
-      <c r="F50" t="n">
-        <v/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G50" t="n">
         <v/>
@@ -2122,11 +2124,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2137,8 +2139,10 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="n">
-        <v/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2154,11 +2158,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2186,11 +2190,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2218,11 +2222,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2250,11 +2254,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2282,11 +2286,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2314,11 +2318,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2346,11 +2350,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2378,11 +2382,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2410,11 +2414,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2442,11 +2446,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2474,11 +2478,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2506,11 +2510,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2538,11 +2542,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2570,11 +2574,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2585,10 +2589,8 @@
       <c r="E65" t="n">
         <v/>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F65" t="n">
+        <v/>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -2604,11 +2606,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2619,10 +2621,8 @@
       <c r="E66" t="n">
         <v/>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F66" t="n">
+        <v/>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -2638,11 +2638,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2653,8 +2653,10 @@
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="n">
-        <v/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -2670,11 +2672,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2685,8 +2687,10 @@
       <c r="E68" t="n">
         <v/>
       </c>
-      <c r="F68" t="n">
-        <v/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G68" t="n">
         <v/>
@@ -2702,11 +2706,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2734,11 +2738,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2747,12 +2751,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F70" t="n">
+        <v/>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -2768,11 +2770,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2800,11 +2802,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2813,10 +2815,12 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v/>
-      </c>
-      <c r="F72" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -2832,11 +2836,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2864,11 +2868,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2896,11 +2900,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2928,11 +2932,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2960,11 +2964,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2992,11 +2996,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3024,11 +3028,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3056,11 +3060,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3088,11 +3092,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3103,10 +3107,8 @@
       <c r="E81" t="n">
         <v/>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F81" t="n">
+        <v/>
       </c>
       <c r="G81" t="n">
         <v/>
@@ -3122,11 +3124,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3154,11 +3156,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3169,8 +3171,10 @@
       <c r="E83" t="n">
         <v/>
       </c>
-      <c r="F83" t="n">
-        <v/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G83" t="n">
         <v/>
@@ -3186,11 +3190,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3218,11 +3222,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3250,11 +3254,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3282,11 +3286,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3314,11 +3318,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3329,10 +3333,8 @@
       <c r="E88" t="n">
         <v/>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F88" t="n">
+        <v/>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -3348,11 +3350,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3380,11 +3382,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3395,8 +3397,10 @@
       <c r="E90" t="n">
         <v/>
       </c>
-      <c r="F90" t="n">
-        <v/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G90" t="n">
         <v/>
@@ -3412,11 +3416,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3444,11 +3448,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3476,11 +3480,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3508,11 +3512,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3540,11 +3544,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3572,11 +3576,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3604,11 +3608,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3636,11 +3640,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3668,11 +3672,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3700,11 +3704,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3732,11 +3736,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3764,11 +3768,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3779,10 +3783,8 @@
       <c r="E102" t="n">
         <v/>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F102" t="n">
+        <v/>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -3798,11 +3800,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3830,11 +3832,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3845,8 +3847,10 @@
       <c r="E104" t="n">
         <v/>
       </c>
-      <c r="F104" t="n">
-        <v/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G104" t="n">
         <v/>
@@ -3862,11 +3866,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3894,11 +3898,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3926,11 +3930,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3958,11 +3962,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3990,11 +3994,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4022,11 +4026,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4054,11 +4058,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4086,11 +4090,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4118,11 +4122,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4150,11 +4154,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4182,11 +4186,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4214,11 +4218,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4246,11 +4250,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4278,11 +4282,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4310,11 +4314,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4342,11 +4346,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4374,11 +4378,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4406,11 +4410,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4438,11 +4442,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4470,11 +4474,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4502,11 +4506,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Em Thảo</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4534,30 +4538,94 @@
         </is>
       </c>
       <c r="B126" t="n">
+        <v>43</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v/>
+      </c>
+      <c r="F126" t="n">
+        <v/>
+      </c>
+      <c r="G126" t="n">
+        <v/>
+      </c>
+      <c r="H126" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>42</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v/>
+      </c>
+      <c r="F127" t="n">
+        <v/>
+      </c>
+      <c r="G127" t="n">
+        <v/>
+      </c>
+      <c r="H127" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
         <v>41</v>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v/>
-      </c>
-      <c r="F126" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v/>
+      </c>
+      <c r="F128" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G126" t="n">
-        <v/>
-      </c>
-      <c r="H126" t="n">
+      <c r="G128" t="n">
+        <v/>
+      </c>
+      <c r="H128" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng CẦN THƠ.xlsx
+++ b/report_khach_hang/Danh sách khách hàng CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -504,11 +504,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -538,11 +538,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -606,11 +606,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -674,11 +674,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,8 +689,10 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="n">
-        <v/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0921463451</t>
+        </is>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -706,11 +708,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +725,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -740,11 +742,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -755,8 +757,10 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0769326827</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -772,11 +776,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -789,7 +793,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -806,11 +810,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -821,8 +825,10 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
-        <v/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0798048895</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -838,11 +844,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -855,7 +861,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -872,11 +878,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -887,8 +893,10 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="n">
-        <v/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0761880789</t>
+        </is>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -904,11 +912,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -921,7 +929,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0986087371</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -938,11 +946,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -955,7 +963,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -972,11 +980,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -989,7 +997,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1006,11 +1014,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1023,7 +1031,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1040,11 +1048,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1057,7 +1065,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0934108896</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1074,11 +1082,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1089,10 +1097,8 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0907643256</t>
-        </is>
+      <c r="F20" t="n">
+        <v/>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1108,11 +1114,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1125,7 +1131,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1142,11 +1148,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1157,10 +1163,8 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0868586369</t>
-        </is>
+      <c r="F22" t="n">
+        <v/>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1176,11 +1180,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1193,7 +1197,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1210,11 +1214,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1225,10 +1229,8 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0888155952</t>
-        </is>
+      <c r="F24" t="n">
+        <v/>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1244,11 +1246,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1261,7 +1263,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1278,11 +1280,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1310,11 +1312,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1327,7 +1329,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1344,11 +1346,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1361,7 +1363,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1378,11 +1380,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1395,7 +1397,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1412,11 +1414,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1429,7 +1431,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1446,11 +1448,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1461,8 +1463,10 @@
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="n">
-        <v/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0918667208</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1478,11 +1482,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1495,7 +1499,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1512,11 +1516,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1529,7 +1533,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1546,11 +1550,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1563,7 +1567,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1580,11 +1584,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1597,7 +1601,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1614,11 +1618,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1631,7 +1635,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0888155952</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1648,11 +1652,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1665,7 +1669,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1682,11 +1686,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1697,10 +1701,8 @@
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0797571132</t>
-        </is>
+      <c r="F38" t="n">
+        <v/>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1716,11 +1718,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1733,7 +1735,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1750,11 +1752,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1767,7 +1769,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1784,11 +1786,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1801,7 +1803,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1818,11 +1820,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1835,7 +1837,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -1852,11 +1854,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1867,10 +1869,8 @@
       <c r="E43" t="n">
         <v/>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0847413423</t>
-        </is>
+      <c r="F43" t="n">
+        <v/>
       </c>
       <c r="G43" t="n">
         <v/>
@@ -1886,11 +1886,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -1920,11 +1920,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1954,11 +1954,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -1988,11 +1988,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2022,11 +2022,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2056,11 +2056,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2090,11 +2090,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2124,11 +2124,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2158,11 +2158,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2173,8 +2173,10 @@
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="n">
-        <v/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0868748958</t>
+        </is>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2190,11 +2192,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2205,8 +2207,10 @@
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="n">
-        <v/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0946327273</t>
+        </is>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2222,11 +2226,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2237,8 +2241,10 @@
       <c r="E54" t="n">
         <v/>
       </c>
-      <c r="F54" t="n">
-        <v/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0779886019</t>
+        </is>
       </c>
       <c r="G54" t="n">
         <v/>
@@ -2254,11 +2260,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2269,8 +2275,10 @@
       <c r="E55" t="n">
         <v/>
       </c>
-      <c r="F55" t="n">
-        <v/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0847413423</t>
+        </is>
       </c>
       <c r="G55" t="n">
         <v/>
@@ -2286,11 +2294,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2301,8 +2309,10 @@
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="n">
-        <v/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0364212994</t>
+        </is>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2318,11 +2328,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2333,8 +2343,10 @@
       <c r="E57" t="n">
         <v/>
       </c>
-      <c r="F57" t="n">
-        <v/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0939773382</t>
+        </is>
       </c>
       <c r="G57" t="n">
         <v/>
@@ -2350,11 +2362,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2365,8 +2377,10 @@
       <c r="E58" t="n">
         <v/>
       </c>
-      <c r="F58" t="n">
-        <v/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0762777862</t>
+        </is>
       </c>
       <c r="G58" t="n">
         <v/>
@@ -2382,11 +2396,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2397,8 +2411,10 @@
       <c r="E59" t="n">
         <v/>
       </c>
-      <c r="F59" t="n">
-        <v/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0703145712</t>
+        </is>
       </c>
       <c r="G59" t="n">
         <v/>
@@ -2414,11 +2430,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2429,8 +2445,10 @@
       <c r="E60" t="n">
         <v/>
       </c>
-      <c r="F60" t="n">
-        <v/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2446,11 +2464,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2461,8 +2479,10 @@
       <c r="E61" t="n">
         <v/>
       </c>
-      <c r="F61" t="n">
-        <v/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v/>
@@ -2478,11 +2498,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2493,8 +2513,10 @@
       <c r="E62" t="n">
         <v/>
       </c>
-      <c r="F62" t="n">
-        <v/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G62" t="n">
         <v/>
@@ -2510,11 +2532,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2525,8 +2547,10 @@
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="n">
-        <v/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -2542,11 +2566,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2574,11 +2598,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2606,11 +2630,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2638,11 +2662,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2653,10 +2677,8 @@
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F67" t="n">
+        <v/>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -2672,11 +2694,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2687,10 +2709,8 @@
       <c r="E68" t="n">
         <v/>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F68" t="n">
+        <v/>
       </c>
       <c r="G68" t="n">
         <v/>
@@ -2706,11 +2726,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2738,11 +2758,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2770,11 +2790,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2802,11 +2822,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2815,12 +2835,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F72" t="n">
+        <v/>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -2836,11 +2854,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2868,11 +2886,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2900,11 +2918,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2932,11 +2950,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2964,11 +2982,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2996,11 +3014,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3028,11 +3046,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3043,8 +3061,10 @@
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="n">
-        <v/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3060,11 +3080,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3075,8 +3095,10 @@
       <c r="E80" t="n">
         <v/>
       </c>
-      <c r="F80" t="n">
-        <v/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -3092,11 +3114,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3124,11 +3146,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3156,11 +3178,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3171,10 +3193,8 @@
       <c r="E83" t="n">
         <v/>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F83" t="n">
+        <v/>
       </c>
       <c r="G83" t="n">
         <v/>
@@ -3190,11 +3210,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3203,10 +3223,12 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v/>
-      </c>
-      <c r="F84" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -3222,11 +3244,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3254,11 +3276,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3286,11 +3308,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3318,11 +3340,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3350,11 +3372,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3382,11 +3404,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3397,10 +3419,8 @@
       <c r="E90" t="n">
         <v/>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F90" t="n">
+        <v/>
       </c>
       <c r="G90" t="n">
         <v/>
@@ -3416,11 +3436,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3448,11 +3468,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3480,11 +3500,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3512,11 +3532,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3544,11 +3564,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3559,8 +3579,10 @@
       <c r="E95" t="n">
         <v/>
       </c>
-      <c r="F95" t="n">
-        <v/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G95" t="n">
         <v/>
@@ -3576,11 +3598,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3608,11 +3630,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3640,11 +3662,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3672,11 +3694,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3704,11 +3726,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3736,11 +3758,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3768,11 +3790,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3783,8 +3805,10 @@
       <c r="E102" t="n">
         <v/>
       </c>
-      <c r="F102" t="n">
-        <v/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -3800,11 +3824,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3832,11 +3856,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3847,10 +3871,8 @@
       <c r="E104" t="n">
         <v/>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F104" t="n">
+        <v/>
       </c>
       <c r="G104" t="n">
         <v/>
@@ -3866,11 +3888,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3898,11 +3920,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3930,11 +3952,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3962,11 +3984,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3994,11 +4016,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4026,11 +4048,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4058,11 +4080,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4090,11 +4112,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4122,11 +4144,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4154,11 +4176,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4186,11 +4208,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4218,11 +4240,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4233,8 +4255,10 @@
       <c r="E116" t="n">
         <v/>
       </c>
-      <c r="F116" t="n">
-        <v/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G116" t="n">
         <v/>
@@ -4250,11 +4274,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4282,11 +4306,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4314,11 +4338,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4346,11 +4370,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4378,11 +4402,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4410,11 +4434,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4442,11 +4466,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4474,11 +4498,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4506,11 +4530,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4538,11 +4562,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4570,11 +4594,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4602,30 +4626,414 @@
         </is>
       </c>
       <c r="B128" t="n">
+        <v>53</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Kim Cương</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v/>
+      </c>
+      <c r="F128" t="n">
+        <v/>
+      </c>
+      <c r="G128" t="n">
+        <v/>
+      </c>
+      <c r="H128" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>52</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Chú Hàn Quốc</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v/>
+      </c>
+      <c r="F129" t="n">
+        <v/>
+      </c>
+      <c r="G129" t="n">
+        <v/>
+      </c>
+      <c r="H129" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>51</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thị Cúc </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v/>
+      </c>
+      <c r="F130" t="n">
+        <v/>
+      </c>
+      <c r="G130" t="n">
+        <v/>
+      </c>
+      <c r="H130" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>50</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Ngọc Hân</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v/>
+      </c>
+      <c r="F131" t="n">
+        <v/>
+      </c>
+      <c r="G131" t="n">
+        <v/>
+      </c>
+      <c r="H131" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>49</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anh tuyền </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v/>
+      </c>
+      <c r="F132" t="n">
+        <v/>
+      </c>
+      <c r="G132" t="n">
+        <v/>
+      </c>
+      <c r="H132" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>48</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>chị Hà</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v/>
+      </c>
+      <c r="F133" t="n">
+        <v/>
+      </c>
+      <c r="G133" t="n">
+        <v/>
+      </c>
+      <c r="H133" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>47</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>C Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v/>
+      </c>
+      <c r="F134" t="n">
+        <v/>
+      </c>
+      <c r="G134" t="n">
+        <v/>
+      </c>
+      <c r="H134" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>46</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ngọc Tuyền </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v/>
+      </c>
+      <c r="F135" t="n">
+        <v/>
+      </c>
+      <c r="G135" t="n">
+        <v/>
+      </c>
+      <c r="H135" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>45</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v/>
+      </c>
+      <c r="F136" t="n">
+        <v/>
+      </c>
+      <c r="G136" t="n">
+        <v/>
+      </c>
+      <c r="H136" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>44</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v/>
+      </c>
+      <c r="F137" t="n">
+        <v/>
+      </c>
+      <c r="G137" t="n">
+        <v/>
+      </c>
+      <c r="H137" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>43</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v/>
+      </c>
+      <c r="F138" t="n">
+        <v/>
+      </c>
+      <c r="G138" t="n">
+        <v/>
+      </c>
+      <c r="H138" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>42</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v/>
+      </c>
+      <c r="F139" t="n">
+        <v/>
+      </c>
+      <c r="G139" t="n">
+        <v/>
+      </c>
+      <c r="H139" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
         <v>41</v>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v/>
-      </c>
-      <c r="F128" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v/>
+      </c>
+      <c r="F140" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G128" t="n">
-        <v/>
-      </c>
-      <c r="H128" t="n">
+      <c r="G140" t="n">
+        <v/>
+      </c>
+      <c r="H140" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng CẦN THƠ.xlsx
+++ b/report_khach_hang/Danh sách khách hàng CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -504,11 +504,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -538,11 +538,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -606,11 +606,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -674,11 +674,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -708,11 +708,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -776,11 +776,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -810,11 +810,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -844,11 +844,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -878,11 +878,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -912,11 +912,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -946,11 +946,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -980,11 +980,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1048,11 +1048,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1082,11 +1082,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1097,8 +1097,10 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="n">
-        <v/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0971073757</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1114,11 +1116,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1131,7 +1133,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1148,11 +1150,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1163,8 +1165,10 @@
       <c r="E22" t="n">
         <v/>
       </c>
-      <c r="F22" t="n">
-        <v/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0934108896</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -1180,11 +1184,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1195,10 +1199,8 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0974370797</t>
-        </is>
+      <c r="F23" t="n">
+        <v/>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1214,11 +1216,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1229,8 +1231,10 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="n">
-        <v/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0788716689</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1246,11 +1250,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1261,10 +1265,8 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0865677896</t>
-        </is>
+      <c r="F25" t="n">
+        <v/>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1280,11 +1282,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1295,8 +1297,10 @@
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="n">
-        <v/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0974370797</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1312,11 +1316,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1327,10 +1331,8 @@
       <c r="E27" t="n">
         <v/>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0986087371</t>
-        </is>
+      <c r="F27" t="n">
+        <v/>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -1346,11 +1348,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1363,7 +1365,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1380,11 +1382,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1395,10 +1397,8 @@
       <c r="E29" t="n">
         <v/>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0786942575</t>
-        </is>
+      <c r="F29" t="n">
+        <v/>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1448,11 +1448,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1482,11 +1482,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1516,11 +1516,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1550,11 +1550,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1584,11 +1584,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1618,11 +1618,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1652,11 +1652,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1686,11 +1686,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1701,8 +1701,10 @@
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="n">
-        <v/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0936335226</t>
+        </is>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1718,11 +1720,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1735,7 +1737,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0888155952</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1752,11 +1754,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1769,7 +1771,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1786,11 +1788,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1801,10 +1803,8 @@
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0833644489</t>
-        </is>
+      <c r="F41" t="n">
+        <v/>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -1820,11 +1820,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -1854,11 +1854,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1869,8 +1869,10 @@
       <c r="E43" t="n">
         <v/>
       </c>
-      <c r="F43" t="n">
-        <v/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0939268869</t>
+        </is>
       </c>
       <c r="G43" t="n">
         <v/>
@@ -1886,11 +1888,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1903,7 +1905,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -1920,11 +1922,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1937,7 +1939,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1954,11 +1956,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1969,10 +1971,8 @@
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0383095255</t>
-        </is>
+      <c r="F46" t="n">
+        <v/>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -1988,11 +1988,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2022,11 +2022,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2056,11 +2056,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2090,11 +2090,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2124,11 +2124,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2158,11 +2158,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2192,11 +2192,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2226,11 +2226,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2260,11 +2260,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2294,11 +2294,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2328,11 +2328,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2362,11 +2362,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2396,11 +2396,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2430,11 +2430,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2464,11 +2464,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2498,11 +2498,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2532,11 +2532,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2566,11 +2566,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2581,8 +2581,10 @@
       <c r="E64" t="n">
         <v/>
       </c>
-      <c r="F64" t="n">
-        <v/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G64" t="n">
         <v/>
@@ -2598,11 +2600,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2613,8 +2615,10 @@
       <c r="E65" t="n">
         <v/>
       </c>
-      <c r="F65" t="n">
-        <v/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -2630,11 +2634,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2645,8 +2649,10 @@
       <c r="E66" t="n">
         <v/>
       </c>
-      <c r="F66" t="n">
-        <v/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -2662,11 +2668,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2694,11 +2700,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2726,11 +2732,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2758,11 +2764,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2790,11 +2796,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2822,11 +2828,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2854,11 +2860,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2886,11 +2892,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2918,11 +2924,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2950,11 +2956,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2982,11 +2988,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3014,11 +3020,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3046,11 +3052,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3061,10 +3067,8 @@
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F79" t="n">
+        <v/>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3080,11 +3084,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3095,10 +3099,8 @@
       <c r="E80" t="n">
         <v/>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F80" t="n">
+        <v/>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -3114,11 +3116,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3146,11 +3148,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3161,8 +3163,10 @@
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="n">
-        <v/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3178,11 +3182,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3193,8 +3197,10 @@
       <c r="E83" t="n">
         <v/>
       </c>
-      <c r="F83" t="n">
-        <v/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G83" t="n">
         <v/>
@@ -3210,11 +3216,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3223,12 +3229,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F84" t="n">
+        <v/>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -3244,11 +3248,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3276,11 +3280,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3308,11 +3312,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3321,10 +3325,12 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v/>
-      </c>
-      <c r="F87" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -3340,11 +3346,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3372,11 +3378,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3404,11 +3410,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3436,11 +3442,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3468,11 +3474,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3500,11 +3506,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3532,11 +3538,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3564,11 +3570,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3579,10 +3585,8 @@
       <c r="E95" t="n">
         <v/>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F95" t="n">
+        <v/>
       </c>
       <c r="G95" t="n">
         <v/>
@@ -3598,11 +3602,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3630,11 +3634,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3662,11 +3666,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3677,8 +3681,10 @@
       <c r="E98" t="n">
         <v/>
       </c>
-      <c r="F98" t="n">
-        <v/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G98" t="n">
         <v/>
@@ -3694,11 +3700,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3726,11 +3732,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3758,11 +3764,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3790,11 +3796,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3805,10 +3811,8 @@
       <c r="E102" t="n">
         <v/>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F102" t="n">
+        <v/>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -3824,11 +3828,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3856,11 +3860,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3888,11 +3892,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3903,8 +3907,10 @@
       <c r="E105" t="n">
         <v/>
       </c>
-      <c r="F105" t="n">
-        <v/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G105" t="n">
         <v/>
@@ -3920,11 +3926,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3952,11 +3958,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3984,11 +3990,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4016,11 +4022,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4048,11 +4054,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4080,11 +4086,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4112,11 +4118,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4144,11 +4150,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4176,11 +4182,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4208,11 +4214,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4240,11 +4246,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4255,10 +4261,8 @@
       <c r="E116" t="n">
         <v/>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F116" t="n">
+        <v/>
       </c>
       <c r="G116" t="n">
         <v/>
@@ -4274,11 +4278,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4306,11 +4310,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4338,11 +4342,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4353,8 +4357,10 @@
       <c r="E119" t="n">
         <v/>
       </c>
-      <c r="F119" t="n">
-        <v/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G119" t="n">
         <v/>
@@ -4370,11 +4376,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4402,11 +4408,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4434,11 +4440,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4466,11 +4472,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4498,11 +4504,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4530,11 +4536,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4562,11 +4568,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4594,11 +4600,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4626,11 +4632,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4658,11 +4664,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4690,11 +4696,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4722,11 +4728,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4754,11 +4760,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4786,11 +4792,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4818,11 +4824,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4850,11 +4856,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4882,11 +4888,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4914,11 +4920,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4946,11 +4952,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4978,11 +4984,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5010,30 +5016,126 @@
         </is>
       </c>
       <c r="B140" t="n">
+        <v>44</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v/>
+      </c>
+      <c r="F140" t="n">
+        <v/>
+      </c>
+      <c r="G140" t="n">
+        <v/>
+      </c>
+      <c r="H140" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>43</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v/>
+      </c>
+      <c r="F141" t="n">
+        <v/>
+      </c>
+      <c r="G141" t="n">
+        <v/>
+      </c>
+      <c r="H141" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>42</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v/>
+      </c>
+      <c r="F142" t="n">
+        <v/>
+      </c>
+      <c r="G142" t="n">
+        <v/>
+      </c>
+      <c r="H142" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
         <v>41</v>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v/>
-      </c>
-      <c r="F140" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v/>
+      </c>
+      <c r="F143" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G140" t="n">
-        <v/>
-      </c>
-      <c r="H140" t="n">
+      <c r="G143" t="n">
+        <v/>
+      </c>
+      <c r="H143" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng CẦN THƠ.xlsx
+++ b/report_khach_hang/Danh sách khách hàng CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -504,11 +504,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -538,11 +538,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -606,11 +606,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -674,11 +674,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -708,11 +708,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -776,11 +776,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -810,11 +810,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -844,11 +844,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -878,11 +878,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -912,11 +912,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -946,11 +946,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -980,11 +980,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1048,11 +1048,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1082,11 +1082,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1116,11 +1116,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1150,11 +1150,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1184,11 +1184,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1199,8 +1199,10 @@
       <c r="E23" t="n">
         <v/>
       </c>
-      <c r="F23" t="n">
-        <v/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0934108896</t>
+        </is>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -1216,11 +1218,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1231,10 +1233,8 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0788716689</t>
-        </is>
+      <c r="F24" t="n">
+        <v/>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1250,11 +1250,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1265,8 +1265,10 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="n">
-        <v/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0788716689</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1282,11 +1284,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1297,10 +1299,8 @@
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0974370797</t>
-        </is>
+      <c r="F26" t="n">
+        <v/>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1331,8 +1331,10 @@
       <c r="E27" t="n">
         <v/>
       </c>
-      <c r="F27" t="n">
-        <v/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0974370797</t>
+        </is>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -1348,11 +1350,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1363,10 +1365,8 @@
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0865677896</t>
-        </is>
+      <c r="F28" t="n">
+        <v/>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1382,11 +1382,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1397,8 +1397,10 @@
       <c r="E29" t="n">
         <v/>
       </c>
-      <c r="F29" t="n">
-        <v/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0865677896</t>
+        </is>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1414,11 +1416,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1429,10 +1431,8 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0986087371</t>
-        </is>
+      <c r="F30" t="n">
+        <v/>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1448,11 +1448,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1482,11 +1482,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1516,11 +1516,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1550,11 +1550,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1584,11 +1584,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1618,11 +1618,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1652,11 +1652,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1686,11 +1686,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1720,11 +1720,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1754,11 +1754,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0888155952</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1788,11 +1788,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1803,8 +1803,10 @@
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="n">
-        <v/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0845450305</t>
+        </is>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -1820,11 +1822,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1835,10 +1837,8 @@
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0772155826</t>
-        </is>
+      <c r="F42" t="n">
+        <v/>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -1854,11 +1854,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1888,11 +1888,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -1922,11 +1922,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1956,11 +1956,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1971,8 +1971,10 @@
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="n">
-        <v/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0918877304</t>
+        </is>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -1988,11 +1990,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2003,10 +2005,8 @@
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0949625783</t>
-        </is>
+      <c r="F47" t="n">
+        <v/>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2022,11 +2022,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2056,11 +2056,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2090,11 +2090,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2124,11 +2124,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2158,11 +2158,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2192,11 +2192,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2226,11 +2226,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2260,11 +2260,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2294,11 +2294,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2328,11 +2328,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2362,11 +2362,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2396,11 +2396,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2430,11 +2430,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2464,11 +2464,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2498,11 +2498,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2532,11 +2532,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2566,11 +2566,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2600,11 +2600,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -2634,11 +2634,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0777004897</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -2668,11 +2668,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2683,8 +2683,10 @@
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="n">
-        <v/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -2700,11 +2702,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2732,11 +2734,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2764,11 +2766,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2796,11 +2798,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2828,11 +2830,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2860,11 +2862,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2892,11 +2894,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2924,11 +2926,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2956,11 +2958,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2988,11 +2990,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3020,11 +3022,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3052,11 +3054,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3084,11 +3086,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3116,11 +3118,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3148,11 +3150,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3163,10 +3165,8 @@
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F82" t="n">
+        <v/>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3182,11 +3182,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>TN-89</t>
+          <t>0329634779</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3216,11 +3216,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3231,8 +3231,10 @@
       <c r="E84" t="n">
         <v/>
       </c>
-      <c r="F84" t="n">
-        <v/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -3248,11 +3250,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3280,11 +3282,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3312,11 +3314,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3325,12 +3327,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F87" t="n">
+        <v/>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -3346,11 +3346,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3359,10 +3359,12 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v/>
-      </c>
-      <c r="F88" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -3378,11 +3380,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3410,11 +3412,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3442,11 +3444,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3474,7 +3476,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3506,11 +3508,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3538,11 +3540,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3570,11 +3572,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3602,11 +3604,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3634,11 +3636,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3666,11 +3668,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3681,10 +3683,8 @@
       <c r="E98" t="n">
         <v/>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F98" t="n">
+        <v/>
       </c>
       <c r="G98" t="n">
         <v/>
@@ -3700,11 +3700,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3715,8 +3715,10 @@
       <c r="E99" t="n">
         <v/>
       </c>
-      <c r="F99" t="n">
-        <v/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -3732,11 +3734,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3764,11 +3766,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3796,11 +3798,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3828,11 +3830,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3860,11 +3862,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3892,11 +3894,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3907,10 +3909,8 @@
       <c r="E105" t="n">
         <v/>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F105" t="n">
+        <v/>
       </c>
       <c r="G105" t="n">
         <v/>
@@ -3926,11 +3926,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3941,8 +3941,10 @@
       <c r="E106" t="n">
         <v/>
       </c>
-      <c r="F106" t="n">
-        <v/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G106" t="n">
         <v/>
@@ -3958,11 +3960,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3990,11 +3992,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4022,11 +4024,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4054,11 +4056,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4086,11 +4088,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4118,11 +4120,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4150,11 +4152,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4182,11 +4184,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4214,11 +4216,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4246,11 +4248,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4278,11 +4280,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4310,11 +4312,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4342,11 +4344,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4357,10 +4359,8 @@
       <c r="E119" t="n">
         <v/>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F119" t="n">
+        <v/>
       </c>
       <c r="G119" t="n">
         <v/>
@@ -4376,11 +4376,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4391,8 +4391,10 @@
       <c r="E120" t="n">
         <v/>
       </c>
-      <c r="F120" t="n">
-        <v/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G120" t="n">
         <v/>
@@ -4408,11 +4410,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4440,11 +4442,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4472,11 +4474,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4504,11 +4506,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4536,11 +4538,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4568,11 +4570,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4600,11 +4602,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4632,11 +4634,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4664,11 +4666,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4696,11 +4698,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4728,11 +4730,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4760,11 +4762,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4792,11 +4794,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4824,11 +4826,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4856,11 +4858,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4888,11 +4890,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4920,11 +4922,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4952,11 +4954,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4984,11 +4986,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5016,11 +5018,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5048,11 +5050,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Em Thảo</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5080,11 +5082,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Anh Toàn</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5112,30 +5114,62 @@
         </is>
       </c>
       <c r="B143" t="n">
+        <v>42</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v/>
+      </c>
+      <c r="F143" t="n">
+        <v/>
+      </c>
+      <c r="G143" t="n">
+        <v/>
+      </c>
+      <c r="H143" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
         <v>41</v>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v/>
-      </c>
-      <c r="F143" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v/>
+      </c>
+      <c r="F144" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G143" t="n">
-        <v/>
-      </c>
-      <c r="H143" t="n">
+      <c r="G144" t="n">
+        <v/>
+      </c>
+      <c r="H144" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng CẦN THƠ.xlsx
+++ b/report_khach_hang/Danh sách khách hàng CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -504,11 +504,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -538,11 +538,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -606,11 +606,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -674,11 +674,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -708,11 +708,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -776,11 +776,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -810,11 +810,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -844,11 +844,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -878,11 +878,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -912,11 +912,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -946,11 +946,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -980,11 +980,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1048,11 +1048,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0778162478</t>
+          <t>0907388219</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1082,11 +1082,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1116,11 +1116,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0778162478</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1150,11 +1150,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1184,11 +1184,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1233,8 +1233,10 @@
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="n">
-        <v/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0872928717</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1250,11 +1252,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1267,7 +1269,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0934108896</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1284,11 +1286,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1316,11 +1318,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1333,7 +1335,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1350,11 +1352,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1382,11 +1384,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1399,7 +1401,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1416,11 +1418,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1431,8 +1433,10 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="n">
-        <v/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0347433400</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1448,11 +1452,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1465,7 +1469,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0986087371</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1482,11 +1486,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1497,10 +1501,8 @@
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0799535184</t>
-        </is>
+      <c r="F32" t="n">
+        <v/>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1516,11 +1518,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1533,7 +1535,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1550,11 +1552,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1567,7 +1569,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1584,11 +1586,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1601,7 +1603,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1618,11 +1620,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1635,7 +1637,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1652,11 +1654,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1669,7 +1671,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1686,11 +1688,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1703,7 +1705,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1720,11 +1722,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1737,7 +1739,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1754,11 +1756,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1771,7 +1773,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1788,11 +1790,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1805,7 +1807,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1822,11 +1824,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1837,8 +1839,10 @@
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="n">
-        <v/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -1854,11 +1858,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1871,7 +1875,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1888,11 +1892,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1903,10 +1907,8 @@
       <c r="E44" t="n">
         <v/>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0939268869</t>
-        </is>
+      <c r="F44" t="n">
+        <v/>
       </c>
       <c r="G44" t="n">
         <v/>
@@ -1922,11 +1924,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1939,7 +1941,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1956,11 +1958,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1973,7 +1975,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -1990,11 +1992,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2005,8 +2007,10 @@
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="n">
-        <v/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0833644489</t>
+        </is>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2022,11 +2026,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2039,7 +2043,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2056,11 +2060,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2071,10 +2075,8 @@
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0939273533</t>
-        </is>
+      <c r="F49" t="n">
+        <v/>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2090,11 +2092,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2107,7 +2109,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2124,11 +2126,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2141,7 +2143,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2158,11 +2160,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2175,7 +2177,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2192,11 +2194,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2209,7 +2211,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2226,11 +2228,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2243,7 +2245,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2260,11 +2262,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2277,7 +2279,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2294,11 +2296,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2311,7 +2313,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2328,11 +2330,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2345,7 +2347,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2362,11 +2364,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2379,7 +2381,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2396,11 +2398,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2413,7 +2415,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2430,11 +2432,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2447,7 +2449,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2464,11 +2466,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2481,7 +2483,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2498,11 +2500,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2515,7 +2517,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2532,11 +2534,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2549,7 +2551,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2566,11 +2568,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2583,7 +2585,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2600,11 +2602,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2617,7 +2619,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -2634,11 +2636,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2651,7 +2653,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -2668,11 +2670,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2685,7 +2687,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -2702,11 +2704,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2717,8 +2719,10 @@
       <c r="E68" t="n">
         <v/>
       </c>
-      <c r="F68" t="n">
-        <v/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G68" t="n">
         <v/>
@@ -2734,11 +2738,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2749,8 +2753,10 @@
       <c r="E69" t="n">
         <v/>
       </c>
-      <c r="F69" t="n">
-        <v/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G69" t="n">
         <v/>
@@ -2766,11 +2772,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2798,11 +2804,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2830,11 +2836,11 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2862,11 +2868,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2894,11 +2900,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2926,11 +2932,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2958,11 +2964,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2990,11 +2996,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3022,11 +3028,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3054,11 +3060,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3086,11 +3092,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3118,11 +3124,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3150,11 +3156,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3182,11 +3188,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3197,10 +3203,8 @@
       <c r="E83" t="n">
         <v/>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F83" t="n">
+        <v/>
       </c>
       <c r="G83" t="n">
         <v/>
@@ -3216,11 +3220,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3231,10 +3235,8 @@
       <c r="E84" t="n">
         <v/>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F84" t="n">
+        <v/>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -3250,11 +3252,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3265,8 +3267,10 @@
       <c r="E85" t="n">
         <v/>
       </c>
-      <c r="F85" t="n">
-        <v/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G85" t="n">
         <v/>
@@ -3282,11 +3286,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3297,8 +3301,10 @@
       <c r="E86" t="n">
         <v/>
       </c>
-      <c r="F86" t="n">
-        <v/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G86" t="n">
         <v/>
@@ -3314,11 +3320,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3346,11 +3352,11 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3359,12 +3365,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F88" t="n">
+        <v/>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -3380,11 +3384,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3412,11 +3416,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3425,10 +3429,12 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v/>
-      </c>
-      <c r="F90" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G90" t="n">
         <v/>
@@ -3444,11 +3450,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3476,11 +3482,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3508,11 +3514,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3540,11 +3546,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3572,11 +3578,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3604,11 +3610,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3636,11 +3642,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3668,11 +3674,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3700,11 +3706,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3715,10 +3721,8 @@
       <c r="E99" t="n">
         <v/>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F99" t="n">
+        <v/>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -3734,11 +3738,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3766,11 +3770,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3781,8 +3785,10 @@
       <c r="E101" t="n">
         <v/>
       </c>
-      <c r="F101" t="n">
-        <v/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G101" t="n">
         <v/>
@@ -3798,11 +3804,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3830,11 +3836,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3862,11 +3868,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3894,11 +3900,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3926,11 +3932,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3941,10 +3947,8 @@
       <c r="E106" t="n">
         <v/>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F106" t="n">
+        <v/>
       </c>
       <c r="G106" t="n">
         <v/>
@@ -3960,11 +3964,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3992,11 +3996,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4007,8 +4011,10 @@
       <c r="E108" t="n">
         <v/>
       </c>
-      <c r="F108" t="n">
-        <v/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G108" t="n">
         <v/>
@@ -4024,11 +4030,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4056,11 +4062,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4088,11 +4094,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4120,11 +4126,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4152,11 +4158,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4184,11 +4190,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4216,11 +4222,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4248,11 +4254,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4280,11 +4286,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4312,11 +4318,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4344,11 +4350,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4376,11 +4382,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4391,10 +4397,8 @@
       <c r="E120" t="n">
         <v/>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F120" t="n">
+        <v/>
       </c>
       <c r="G120" t="n">
         <v/>
@@ -4410,11 +4414,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4442,11 +4446,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4457,8 +4461,10 @@
       <c r="E122" t="n">
         <v/>
       </c>
-      <c r="F122" t="n">
-        <v/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G122" t="n">
         <v/>
@@ -4474,11 +4480,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4506,11 +4512,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4538,11 +4544,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4570,11 +4576,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4602,11 +4608,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4634,11 +4640,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4666,11 +4672,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4698,11 +4704,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4730,11 +4736,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4762,11 +4768,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4794,11 +4800,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4826,11 +4832,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4858,11 +4864,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4890,11 +4896,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4922,11 +4928,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4954,11 +4960,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4986,11 +4992,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5018,11 +5024,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5050,11 +5056,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5082,11 +5088,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5114,11 +5120,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Em Thảo</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5146,30 +5152,94 @@
         </is>
       </c>
       <c r="B144" t="n">
+        <v>43</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v/>
+      </c>
+      <c r="F144" t="n">
+        <v/>
+      </c>
+      <c r="G144" t="n">
+        <v/>
+      </c>
+      <c r="H144" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>42</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v/>
+      </c>
+      <c r="F145" t="n">
+        <v/>
+      </c>
+      <c r="G145" t="n">
+        <v/>
+      </c>
+      <c r="H145" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
         <v>41</v>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v/>
-      </c>
-      <c r="F144" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v/>
+      </c>
+      <c r="F146" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G144" t="n">
-        <v/>
-      </c>
-      <c r="H144" t="n">
+      <c r="G146" t="n">
+        <v/>
+      </c>
+      <c r="H146" t="n">
         <v/>
       </c>
     </row>
